--- a/witch-quest/checklist.xlsx
+++ b/witch-quest/checklist.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/witch-quest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/witch-quest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06F06003-0B7F-3641-9316-46A5DD37898C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33ECA13B-B6A5-9D46-8B95-8ECE31D121CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{ED4BF879-D6FB-2440-80EC-8951A8AB41A6}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="16360" xr2:uid="{ED4BF879-D6FB-2440-80EC-8951A8AB41A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>year</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>Witch Quest 2: City Without Edith and the Cat Vol 2</t>
+  </si>
+  <si>
+    <t>slipcase_2001.jpg</t>
+  </si>
+  <si>
+    <t>ウィッチクエスト再編集版</t>
+  </si>
+  <si>
+    <t>Witch Quest Re-edited Version</t>
+  </si>
+  <si>
+    <t>slipcase set</t>
   </si>
 </sst>
 </file>
@@ -465,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1406CB55-9082-7048-9C38-DFADEB1C51BC}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,6 +592,26 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
